--- a/中文金融情感词典_Jiang et.al(2020).xlsx
+++ b/中文金融情感词典_Jiang et.al(2020).xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A36995E-59BE-4185-9DF3-AD61CD9229D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0201F595-990E-486A-85F2-201288C10208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="negative" sheetId="5" r:id="rId1"/>
-    <sheet name="positive" sheetId="3" r:id="rId2"/>
+    <sheet name="说明" sheetId="6" r:id="rId1"/>
+    <sheet name="negative" sheetId="5" r:id="rId2"/>
+    <sheet name="positive" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">negative!$A$1:$A$5891</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">positive!$A$1:$A$3339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">negative!$A$1:$A$5891</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">positive!$A$1:$A$3339</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9230" uniqueCount="9211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9233" uniqueCount="9214">
   <si>
     <t xml:space="preserve">败坏名声
 </t>
@@ -36859,6 +36860,16 @@
   </si>
   <si>
     <t>Positive Word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在尊重知识产权的前提下，读者可以免费使用该词典，请引用下列文献：</t>
+  </si>
+  <si>
+    <t>姜富伟，孟令超，唐国豪. 媒体文本情绪与股票回报预测.经济学(季刊),已接受待发表.</t>
+  </si>
+  <si>
+    <t>Fuwei Jiang, Joshua Lee, Xiumin Martin, and Guofu Zhou.“Manager Sentiment and Stock Returns” Journal of Financial Economics 132(1), 2019,126-149</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -36866,7 +36877,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36898,6 +36909,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -36922,7 +36939,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -36934,6 +36951,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -37272,10 +37298,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A0E033-8FC8-4A7E-A6F4-05B7E9451E50}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A5891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -66746,7 +66803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3339"/>
   <sheetViews>
